--- a/Back to Home.xlsx
+++ b/Back to Home.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\BackHome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="操作方法" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Back to Home</t>
     <phoneticPr fontId="1"/>
@@ -57,17 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>で移動</t>
-    <rPh sb="1" eb="3">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マウスで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ概要</t>
     <rPh sb="4" eb="6">
       <t>ガイヨウ</t>
@@ -315,13 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家</t>
-    <rPh sb="0" eb="1">
-      <t>イエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ギミック概要</t>
     <rPh sb="4" eb="6">
       <t>ガイヨウ</t>
@@ -640,23 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計で120回復</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１０増加</t>
-    <rPh sb="2" eb="4">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通常の0.8倍</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
@@ -677,6 +642,47 @@
     <t>20減少</t>
     <rPh sb="2" eb="4">
       <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスで剣を振る</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家（ゴール）</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎秒２回復</t>
+    <rPh sb="0" eb="2">
+      <t>マイビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３増加</t>
+    <rPh sb="1" eb="3">
+      <t>ゾウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1078,39 +1084,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1120,24 +1123,34 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>7</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1151,39 +1164,39 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1198,33 +1211,33 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -1233,9 +1246,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -1244,15 +1257,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1261,12 +1274,12 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1275,15 +1288,15 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1292,9 +1305,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -1303,12 +1316,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J9">
         <v>20</v>
@@ -1317,15 +1330,15 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1334,12 +1347,12 @@
         <v>50</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12">
         <v>15</v>
@@ -1348,24 +1361,24 @@
         <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>25</v>
@@ -1374,43 +1387,43 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1428,51 +1441,51 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1485,109 +1498,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
